--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,7 +258,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}recurrence-reference:If the Condition.clinicalStatus extension is 'recurrence', the recurrenceOf extension must be present. {%resource.clinicalStatus.exists() and %resource.clinicalStatus = 'recurrence' implies exists() valueReference.exists()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -304,10 +304,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1119,7 +1115,7 @@
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1127,10 +1123,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1153,16 +1149,16 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1212,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
@@ -1227,15 +1223,15 @@
         <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1258,13 +1254,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1315,7 +1311,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1327,10 +1323,10 @@
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-recurrence-of.xlsx
+++ b/StructureDefinition-onconova-ext-recurrence-of.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
